--- a/542236.xlsx
+++ b/542236.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1EC0F60-95C9-C14F-BB37-436F5CEA5C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7CC7F9-7A51-664A-936D-3F93D2C0008B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="4800" windowWidth="27840" windowHeight="16840" xr2:uid="{7924069C-D75E-C54F-8B44-04AD2DF40AC3}"/>
+    <workbookView xWindow="1140" yWindow="1440" windowWidth="27840" windowHeight="16840" xr2:uid="{7924069C-D75E-C54F-8B44-04AD2DF40AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>Accuracy(542236)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso Regression+normalization+ lag1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,29 +201,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692AFE41-631D-4947-949A-09523483979B}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -549,106 +553,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>-189.469760166648</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>35.208930673407998</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>82.537466292100504</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>81.344944740947696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
         <v>-17.154099131688302</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
         <v>78.267923349153804</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
         <v>89.285393302661603</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
         <v>81.402640621602202</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" thickBot="1">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    <row r="11" spans="1:3" ht="17" thickBot="1">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
         <v>86.457668000876694</v>
       </c>
     </row>

--- a/542236.xlsx
+++ b/542236.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7CC7F9-7A51-664A-936D-3F93D2C0008B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62665C50-A976-E448-861A-4BC4B5481E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1440" windowWidth="27840" windowHeight="16840" xr2:uid="{7924069C-D75E-C54F-8B44-04AD2DF40AC3}"/>
+    <workbookView xWindow="19160" yWindow="3220" windowWidth="13900" windowHeight="16840" xr2:uid="{7924069C-D75E-C54F-8B44-04AD2DF40AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>Lasso Regression+normalization+ lag1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso Regression+normalization+ lag1 +PCA(6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,16 +543,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692AFE41-631D-4947-949A-09523483979B}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -617,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>-17.154099131688302</v>
+        <v>88.856083384300604</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -628,10 +632,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>78.267923349153804</v>
+        <v>-17.154099131688302</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -639,10 +643,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>89.285393302661603</v>
+        <v>78.267923349153804</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -650,20 +654,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>89.285393302661603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>81.402640621602202</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" thickBot="1">
-      <c r="A11" s="3">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>86.457668000876694</v>
       </c>
     </row>

--- a/542236.xlsx
+++ b/542236.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62665C50-A976-E448-861A-4BC4B5481E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96677C0C-43AB-B84A-A963-52E899A7E638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19160" yWindow="3220" windowWidth="13900" windowHeight="16840" xr2:uid="{7924069C-D75E-C54F-8B44-04AD2DF40AC3}"/>
+    <workbookView xWindow="10280" yWindow="1680" windowWidth="13900" windowHeight="16840" xr2:uid="{7924069C-D75E-C54F-8B44-04AD2DF40AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>81.344944740947696</v>
+        <v>67.702241224180995</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>88.856083384300604</v>
+        <v>90.7938214128976</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -635,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>-17.154099131688302</v>
+        <v>-24.3945651726096</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -646,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>78.267923349153804</v>
+        <v>77.838711222724399</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -679,7 +679,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="3">
-        <v>86.457668000876694</v>
+        <v>88.673858191680395</v>
       </c>
     </row>
   </sheetData>

--- a/542236.xlsx
+++ b/542236.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96677C0C-43AB-B84A-A963-52E899A7E638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC1D3A4-4F0E-9440-B641-8AB44D0EBB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="1680" windowWidth="13900" windowHeight="16840" xr2:uid="{7924069C-D75E-C54F-8B44-04AD2DF40AC3}"/>
+    <workbookView xWindow="12440" yWindow="1340" windowWidth="13900" windowHeight="16840" xr2:uid="{7924069C-D75E-C54F-8B44-04AD2DF40AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>Lasso Regression+normalization+ lag1 +PCA(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision Tree Regression+feature selection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692AFE41-631D-4947-949A-09523483979B}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -668,17 +672,28 @@
         <v>8</v>
       </c>
       <c r="C11" s="2">
-        <v>81.402640621602202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1">
-      <c r="A12" s="3">
+        <v>84.212092567146101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>91.0827149532699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <v>88.673858191680395</v>
       </c>
     </row>

--- a/542236.xlsx
+++ b/542236.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC1D3A4-4F0E-9440-B641-8AB44D0EBB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A683764E-4D32-5E43-910D-4B6861C3C629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12440" yWindow="1340" windowWidth="13900" windowHeight="16840" xr2:uid="{7924069C-D75E-C54F-8B44-04AD2DF40AC3}"/>
+    <workbookView xWindow="2800" yWindow="960" windowWidth="13900" windowHeight="16840" xr2:uid="{7924069C-D75E-C54F-8B44-04AD2DF40AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>Decision Tree Regression+feature selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear Regression+PCA(25)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692AFE41-631D-4947-949A-09523483979B}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -592,10 +596,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>35.208930673407998</v>
+        <v>91.017725316339707</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -603,10 +607,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>82.537466292100504</v>
+        <v>35.208930673407998</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -614,10 +618,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>67.702241224180995</v>
+        <v>82.537466292100504</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -625,10 +629,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>90.7938214128976</v>
+        <v>67.702241224180995</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -636,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>-24.3945651726096</v>
+        <v>90.7938214128976</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -647,10 +651,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>77.838711222724399</v>
+        <v>-24.3945651726096</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -658,10 +662,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
-        <v>89.285393302661603</v>
+        <v>77.838711222724399</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -669,10 +673,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>84.212092567146101</v>
+        <v>89.285393302661603</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -680,20 +684,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>84.212092567146101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>91.0827149532699</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="14" spans="1:3" ht="17" thickBot="1">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>88.673858191680395</v>
       </c>
     </row>
